--- a/861Analytical Decision Making/Assignment3/MMA 861 Assignment 3 Team.xlsx
+++ b/861Analytical Decision Making/Assignment3/MMA 861 Assignment 3 Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/24wq24_queensu_ca/Documents/School/861Analytical Decision Making/Assignment3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{01FD12AF-A4E0-4546-B69D-F3BDA0572B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{15D7DF03-B301-482E-A142-F66F64EE01F5}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{01FD12AF-A4E0-4546-B69D-F3BDA0572B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0EDB210-FD12-4D94-BBA1-E3DB22CDE1FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="450" windowWidth="22905" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="F2" s="2">
         <f>_xll.PTreeEvaluate5(B3,$L$11:$L$69,$J$11:$J$69,$K$11:$K$69,$N$11:$N$69,$G$11:$G$69,,L1)</f>
-        <v>180099</v>
+        <v>360195</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="F2" s="2">
         <f>_xll.PTreeEvaluate5(B3,$L$11:$L$49,$J$11:$J$49,$K$11:$K$49,$N$11:$N$49,$G$11:$G$49,,L1)</f>
-        <v>205825</v>
+        <v>385921</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
